--- a/biology/Botanique/Tipuana_tipu/Tipuana_tipu.xlsx
+++ b/biology/Botanique/Tipuana_tipu/Tipuana_tipu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tipuana tipu est une espèce de la famille des Fabaceae de la sous-famille des Faboideae. C’est la seule espèce du genre Tipuana (genre monotypique).
 Il est aussi appelé palo rosa, tipa ou "Fierté de la Bolivie".
@@ -513,7 +525,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Tipuana tipu est originaire d'Amérique du Sud, où il se trouve dans les régions tempérées et subtropicales, en particulier en Argentine, Brésil, Paraguay et Uruguay. Il a été introduit dans d'autres régions du monde pour son bois et son utilisation en tant qu'arbre d'ornement.
 </t>
@@ -544,7 +558,9 @@
           <t>Étymologie et noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de Tipuana a été donné au genre par George Bentham en 1853. Il dérive de "Tipu" , le nom indigène de l'arbre en Bolivie et qui, dans l'état brésilien du Paraná a donné son nom à une vallée en raison de son abondance. 
 Le nom populaire "palo rosa", qui s'applique également à d'autres espèces d'Amérique du Sud (comme par exemple le perobá), fait probablement allusion à la couleur rougeâtre de sa sève.
@@ -577,7 +593,9 @@
           <t>Systématique et synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Tipuana tipa
 Tipuana speciosa
@@ -610,7 +628,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre à croissance rapide qui peut atteindre 15 à 30 mètres de hauteur. Il ressemble à un robinier mais n'a pas d'épine. Il est apprécié pour son ombrage et comme arbre ornemental.
 Il a une écorce grisâtre et fissurée et une cime très parasolée et très ramifiée fournissant un excellent ombrage.
@@ -645,7 +665,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Tipuana tipu est un arbre utile dans les zones urbaines pour sa résistance à la pollution atmosphérique et à la sécheresse. En outre, c'est une espèce mellifère apprécié pour son ombrage et sa beauté en raison de ses fleurs jaunes en grappes. En Argentine à la fin du XIXe siècle et au début du XXe siècle, Carlos Thays a répandu l'utilisation de cet arbre pour la décoration des parcs, des promenades, des avenues et des boulevards des principales villes.
 Il est également cultivé pour son bois tendre jaunâtre léger, peu résistant et facile à travailler en menuiserie pour la fabrication de meubles ou d'emballages, en bois de chauffage et pour la production de pâte à papier.
@@ -679,7 +701,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Tipuana se multiplie par semis sans difficulté, les traitements préalables ne sont pas indispensables.
 Il aime le soleil et tolère les conditions les plus variées, il pousse vite et supporte assez bien la taille.
@@ -713,9 +737,11 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Tipuana tipu est une espèce commune et répandue dans son habitat naturel en Amérique du Sud et ne fait pas l'objet de préoccupations majeures en matière de conservation. Cependant, il peut être menacé dans certaines zones en raison de la déforestation et de la perte d'habitat[2]
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Tipuana tipu est une espèce commune et répandue dans son habitat naturel en Amérique du Sud et ne fait pas l'objet de préoccupations majeures en matière de conservation. Cependant, il peut être menacé dans certaines zones en raison de la déforestation et de la perte d'habitat
 </t>
         </is>
       </c>
@@ -744,9 +770,11 @@
           <t>Espèce invasive</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tipuana tipu est considérée comme une espèce invasive dans certains pays (inscrite comme espèce envahissante de catégorie 3[3] en Afrique du Sud) et est connue pour avoir un système racinaire très agressif. Les racines des arbres peuvent facilement soulever le béton et l'asphalte. Des précautions doivent être prises lors de la plantation à proximité de bâtiments, de maisons ou de piscines, car ils sont susceptibles d'être endommagés. Les dommages peuvent parfois être évités en creusant des tranchées près de la structure jusqu'à une profondeur d'environ 1 mètre et en remplissant la tranchée avec des gravats de construction ou en doublant la tranchée avec des feuilles de plastique épaisses ou des tôles de toiture ondulées.
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tipuana tipu est considérée comme une espèce invasive dans certains pays (inscrite comme espèce envahissante de catégorie 3 en Afrique du Sud) et est connue pour avoir un système racinaire très agressif. Les racines des arbres peuvent facilement soulever le béton et l'asphalte. Des précautions doivent être prises lors de la plantation à proximité de bâtiments, de maisons ou de piscines, car ils sont susceptibles d'être endommagés. Les dommages peuvent parfois être évités en creusant des tranchées près de la structure jusqu'à une profondeur d'environ 1 mètre et en remplissant la tranchée avec des gravats de construction ou en doublant la tranchée avec des feuilles de plastique épaisses ou des tôles de toiture ondulées.
 </t>
         </is>
       </c>
